--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778972.0600000001</v>
+        <v>1772889.82</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70815.64</v>
+        <v>93309.99000000001</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136345</v>
+        <v>136756.19</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153189.7</v>
+        <v>187788.28</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3863.73</v>
+        <v>4698.23</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14861.69</v>
+        <v>9250.559999999999</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140757.9</v>
+        <v>140229.79</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105673.55</v>
+        <v>105453.69</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18899.87</v>
+        <v>18922.94</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47567.93</v>
+        <v>53874.89</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97240.23</v>
+        <v>97104.03999999999</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16705.71</v>
+        <v>16632.73</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,87 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43866.75</v>
+        <v>43791.13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6672.02</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8484.85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>12705.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>229522.58</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18144.62</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>107044.07</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>170353.46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>405460.5</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,36 +439,48 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1772889.82</v>
+        <v>97104.03999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>102326.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93309.99000000001</v>
+        <v>136756.19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>136797.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136756.19</v>
-      </c>
+        <v>16632.73</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -479,175 +491,223 @@
       <c r="B5" t="n">
         <v>187788.28</v>
       </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4698.23</v>
+        <v>405460.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>391972.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9250.559999999999</v>
+        <v>12705.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12704.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140229.79</v>
+        <v>229522.58</v>
+      </c>
+      <c r="C8" t="n">
+        <v>228620.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105453.69</v>
+        <v>6672.02</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6737.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18922.94</v>
+        <v>107044.07</v>
+      </c>
+      <c r="C10" t="n">
+        <v>106425.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53874.89</v>
+        <v>8484.85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8493.879999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97104.03999999999</v>
+        <v>4698.23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4679.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16632.73</v>
+        <v>9250.559999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9784.440000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43791.13</v>
-      </c>
+        <v>53874.89</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6672.02</v>
+        <v>18144.62</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17991.65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8484.85</v>
+        <v>43791.13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>43905.49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12705.25</v>
+        <v>140229.79</v>
+      </c>
+      <c r="C17" t="n">
+        <v>140375.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>229522.58</v>
-      </c>
+        <v>105453.69</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18144.62</v>
+        <v>18922.94</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18817.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>107044.07</v>
+        <v>170353.46</v>
+      </c>
+      <c r="C20" t="n">
+        <v>170525.29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>170353.46</v>
+        <v>93309.99000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>93343.85000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>405460.5</v>
+        <v>1772889.82</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1400157.74</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,185 +439,244 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1596810.12</v>
+        <v>102326.47</v>
+      </c>
+      <c r="C2" t="n">
+        <v>102454.54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99800.63</v>
+        <v>136797.84</v>
+      </c>
+      <c r="C3" t="n">
+        <v>136194.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102326.47</v>
+        <v>196652.38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>196810.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>136797.84</v>
+        <v>391972.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>390243.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196652.38</v>
+        <v>6737.66</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6792.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391972.41</v>
+        <v>8493.879999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8490.469999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6737.66</v>
+        <v>12704.26</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12695.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8493.879999999999</v>
+        <v>228620.38</v>
+      </c>
+      <c r="C9" t="n">
+        <v>229548.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12704.26</v>
+        <v>106425.39</v>
+      </c>
+      <c r="C10" t="n">
+        <v>107382.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>228620.38</v>
+        <v>4679.44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4927.07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106425.39</v>
+        <v>9784.440000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9075.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4679.44</v>
+        <v>17991.65</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23446.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9784.440000000001</v>
+        <v>43905.49</v>
+      </c>
+      <c r="C14" t="n">
+        <v>43913.46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17991.65</v>
+        <v>140375.53</v>
+      </c>
+      <c r="C15" t="n">
+        <v>140141.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43905.49</v>
+        <v>18817.61</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18675.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>140375.53</v>
+        <v>170525.29</v>
+      </c>
+      <c r="C17" t="n">
+        <v>170523.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18817.61</v>
+        <v>99800.63</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100082.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>170525.29</v>
+        <v>1596810.12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1601315.99</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -506,9 +506,7 @@
       <c r="B6" t="n">
         <v>6737.66</v>
       </c>
-      <c r="C6" t="n">
-        <v>6792.31</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -519,9 +517,7 @@
       <c r="B7" t="n">
         <v>8493.879999999999</v>
       </c>
-      <c r="C7" t="n">
-        <v>8490.469999999999</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -532,9 +528,7 @@
       <c r="B8" t="n">
         <v>12704.26</v>
       </c>
-      <c r="C8" t="n">
-        <v>12695.93</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -545,9 +539,7 @@
       <c r="B9" t="n">
         <v>228620.38</v>
       </c>
-      <c r="C9" t="n">
-        <v>229548.87</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -558,9 +550,7 @@
       <c r="B10" t="n">
         <v>106425.39</v>
       </c>
-      <c r="C10" t="n">
-        <v>107382.82</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -663,7 +653,7 @@
         <v>99800.63</v>
       </c>
       <c r="C18" t="n">
-        <v>100082.25</v>
+        <v>112400.51</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +666,7 @@
         <v>1596810.12</v>
       </c>
       <c r="C19" t="n">
-        <v>1601315.99</v>
+        <v>1236405.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102326.47</v>
+        <v>102320.09</v>
       </c>
       <c r="C2" t="n">
-        <v>102454.54</v>
+        <v>102373.9</v>
       </c>
       <c r="D2" t="n">
-        <v>102333</v>
+        <v>99499.66</v>
       </c>
       <c r="E2" t="n">
-        <v>102535.31</v>
+        <v>102576.34</v>
       </c>
       <c r="F2" t="n">
-        <v>102334.24</v>
+        <v>63812.19</v>
       </c>
       <c r="G2" t="n">
-        <v>102488.58</v>
-      </c>
-      <c r="H2" t="n">
-        <v>102557.07</v>
-      </c>
-      <c r="I2" t="n">
-        <v>102634.39</v>
-      </c>
-      <c r="J2" t="n">
-        <v>102456.59</v>
-      </c>
-      <c r="K2" t="n">
-        <v>102479.67</v>
-      </c>
-      <c r="L2" t="n">
-        <v>102462.25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>102320.09</v>
+        <v>48058.82</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136797.84</v>
+        <v>95168.37</v>
       </c>
       <c r="C3" t="n">
-        <v>136194.07</v>
+        <v>94629.37</v>
       </c>
       <c r="D3" t="n">
-        <v>136063.09</v>
+        <v>92919.41</v>
       </c>
       <c r="E3" t="n">
-        <v>136760.98</v>
+        <v>33899.84</v>
       </c>
       <c r="F3" t="n">
-        <v>136672.54</v>
+        <v>33394.98</v>
       </c>
       <c r="G3" t="n">
-        <v>135411.34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>136731.58</v>
-      </c>
-      <c r="I3" t="n">
-        <v>136000.72</v>
-      </c>
-      <c r="J3" t="n">
-        <v>95676.11</v>
-      </c>
-      <c r="K3" t="n">
-        <v>95682.23</v>
-      </c>
-      <c r="L3" t="n">
-        <v>94490.41</v>
-      </c>
-      <c r="M3" t="n">
-        <v>95168.37</v>
+        <v>33327.28</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196652.38</v>
+        <v>209338.41</v>
       </c>
       <c r="C4" t="n">
-        <v>196810.9</v>
+        <v>209503.41</v>
       </c>
       <c r="D4" t="n">
-        <v>196700.8</v>
+        <v>210907.21</v>
       </c>
       <c r="E4" t="n">
-        <v>196687.41</v>
+        <v>227139.5</v>
       </c>
       <c r="F4" t="n">
-        <v>204136.09</v>
+        <v>227350.79</v>
       </c>
       <c r="G4" t="n">
-        <v>204069.28</v>
-      </c>
-      <c r="H4" t="n">
-        <v>219233.66</v>
-      </c>
-      <c r="I4" t="n">
-        <v>219300.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>219120.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>219171.56</v>
-      </c>
-      <c r="L4" t="n">
-        <v>209377.46</v>
-      </c>
-      <c r="M4" t="n">
-        <v>209338.41</v>
+        <v>227408.82</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>391972.41</v>
+        <v>311481.69</v>
       </c>
       <c r="C5" t="n">
-        <v>390243.02</v>
+        <v>311075.66</v>
       </c>
       <c r="D5" t="n">
-        <v>390154.55</v>
+        <v>301079.88</v>
       </c>
       <c r="E5" t="n">
-        <v>361924.64</v>
+        <v>307127.7</v>
       </c>
       <c r="F5" t="n">
-        <v>343288.53</v>
+        <v>308239.75</v>
       </c>
       <c r="G5" t="n">
-        <v>335029.52</v>
-      </c>
-      <c r="H5" t="n">
-        <v>320658.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>312067.95</v>
-      </c>
-      <c r="J5" t="n">
-        <v>311093.01</v>
-      </c>
-      <c r="K5" t="n">
-        <v>310284.69</v>
-      </c>
-      <c r="L5" t="n">
-        <v>309955.7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>311481.69</v>
+        <v>307040.06</v>
       </c>
     </row>
     <row r="6">
@@ -674,38 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6737.66</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>6680.88</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6582.68</v>
+      </c>
       <c r="D6" t="n">
-        <v>6854.92</v>
+        <v>6689.7</v>
       </c>
       <c r="E6" t="n">
-        <v>6734.18</v>
+        <v>6904.58</v>
       </c>
       <c r="F6" t="n">
-        <v>6814.1</v>
+        <v>6689.72</v>
       </c>
       <c r="G6" t="n">
-        <v>6948.35</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6531.21</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6962.28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6847.73</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6952.42</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6582.03</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6680.88</v>
+        <v>6646.67</v>
       </c>
     </row>
     <row r="7">
@@ -715,38 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8493.879999999999</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>8487.76</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8495.290000000001</v>
+      </c>
       <c r="D7" t="n">
-        <v>8492.139999999999</v>
+        <v>8253.120000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>8490.5</v>
+        <v>8494.18</v>
       </c>
       <c r="F7" t="n">
-        <v>8492.950000000001</v>
+        <v>8489.66</v>
       </c>
       <c r="G7" t="n">
-        <v>8483.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8490.120000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8487.08</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8489.07</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8490.530000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>8476.780000000001</v>
-      </c>
-      <c r="M7" t="n">
-        <v>8487.76</v>
+        <v>8496.530000000001</v>
       </c>
     </row>
     <row r="8">
@@ -756,38 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12704.26</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>12699.85</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12703.5</v>
+      </c>
       <c r="D8" t="n">
-        <v>12694.4</v>
+        <v>12334.09</v>
       </c>
       <c r="E8" t="n">
-        <v>12682.24</v>
+        <v>12690.58</v>
       </c>
       <c r="F8" t="n">
-        <v>12698.53</v>
+        <v>12708.78</v>
       </c>
       <c r="G8" t="n">
-        <v>12713.03</v>
-      </c>
-      <c r="H8" t="n">
-        <v>12690.14</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12705.24</v>
-      </c>
-      <c r="J8" t="n">
-        <v>12703.64</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12696.59</v>
-      </c>
-      <c r="L8" t="n">
-        <v>12689.41</v>
-      </c>
-      <c r="M8" t="n">
-        <v>12699.85</v>
+        <v>12691.47</v>
       </c>
     </row>
     <row r="9">
@@ -797,38 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228620.38</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>187584.03</v>
+      </c>
+      <c r="C9" t="n">
+        <v>187650.21</v>
+      </c>
       <c r="D9" t="n">
-        <v>227479.63</v>
+        <v>183199.45</v>
       </c>
       <c r="E9" t="n">
-        <v>226040.06</v>
+        <v>188151.35</v>
       </c>
       <c r="F9" t="n">
-        <v>225742.86</v>
+        <v>187704.64</v>
       </c>
       <c r="G9" t="n">
-        <v>227647.01</v>
-      </c>
-      <c r="H9" t="n">
-        <v>186725.31</v>
-      </c>
-      <c r="I9" t="n">
-        <v>187478.22</v>
-      </c>
-      <c r="J9" t="n">
-        <v>188798.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>187359.14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>188588.23</v>
-      </c>
-      <c r="M9" t="n">
-        <v>187584.03</v>
+        <v>187025.31</v>
       </c>
     </row>
     <row r="10">
@@ -838,38 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106425.39</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>67218.64</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67425.25</v>
+      </c>
       <c r="D10" t="n">
-        <v>107260.17</v>
+        <v>63955.6</v>
       </c>
       <c r="E10" t="n">
-        <v>106518.89</v>
+        <v>65666.89999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>107794.25</v>
+        <v>47168.34</v>
       </c>
       <c r="G10" t="n">
-        <v>107785.28</v>
-      </c>
-      <c r="H10" t="n">
-        <v>108047.64</v>
-      </c>
-      <c r="I10" t="n">
-        <v>108290.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>108161.85</v>
-      </c>
-      <c r="K10" t="n">
-        <v>66781.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>66193.25999999999</v>
-      </c>
-      <c r="M10" t="n">
-        <v>67218.64</v>
+        <v>46617.99</v>
       </c>
     </row>
     <row r="11">
@@ -879,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4679.44</v>
+        <v>4678.75</v>
       </c>
       <c r="C11" t="n">
-        <v>4927.07</v>
+        <v>4482.47</v>
       </c>
       <c r="D11" t="n">
-        <v>4915.71</v>
+        <v>4542.76</v>
       </c>
       <c r="E11" t="n">
-        <v>4785.7</v>
+        <v>4493.68</v>
       </c>
       <c r="F11" t="n">
-        <v>4556.44</v>
+        <v>4678.97</v>
       </c>
       <c r="G11" t="n">
-        <v>5025.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4684.52</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4772.32</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4614.17</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4644.7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4543.85</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4678.75</v>
+        <v>5104.64</v>
       </c>
     </row>
     <row r="12">
@@ -922,40 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9784.440000000001</v>
+        <v>578.6</v>
       </c>
       <c r="C12" t="n">
-        <v>9075.68</v>
+        <v>552.52</v>
       </c>
       <c r="D12" t="n">
-        <v>9809.98</v>
+        <v>565.35</v>
       </c>
       <c r="E12" t="n">
-        <v>9702.200000000001</v>
+        <v>582.83</v>
       </c>
       <c r="F12" t="n">
-        <v>9736.690000000001</v>
+        <v>598.45</v>
       </c>
       <c r="G12" t="n">
-        <v>9474.280000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4489.46</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4724.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>626.89</v>
-      </c>
-      <c r="K12" t="n">
-        <v>611.11</v>
-      </c>
-      <c r="L12" t="n">
-        <v>568.16</v>
-      </c>
-      <c r="M12" t="n">
-        <v>578.6</v>
+        <v>611.17</v>
       </c>
     </row>
     <row r="13">
@@ -965,40 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17991.65</v>
+        <v>23610.69</v>
       </c>
       <c r="C13" t="n">
-        <v>23446.42</v>
+        <v>23553.01</v>
       </c>
       <c r="D13" t="n">
-        <v>23410.78</v>
+        <v>22973.1</v>
       </c>
       <c r="E13" t="n">
-        <v>23385.1</v>
+        <v>23388.33</v>
       </c>
       <c r="F13" t="n">
-        <v>23419.36</v>
+        <v>23660.66</v>
       </c>
       <c r="G13" t="n">
-        <v>23660.21</v>
-      </c>
-      <c r="H13" t="n">
-        <v>23376.95</v>
-      </c>
-      <c r="I13" t="n">
-        <v>23589.29</v>
-      </c>
-      <c r="J13" t="n">
-        <v>23381.12</v>
-      </c>
-      <c r="K13" t="n">
-        <v>23456.59</v>
-      </c>
-      <c r="L13" t="n">
-        <v>23495.43</v>
-      </c>
-      <c r="M13" t="n">
-        <v>23610.69</v>
+        <v>23775.29</v>
       </c>
     </row>
     <row r="14">
@@ -1008,40 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43905.49</v>
+        <v>43864.16</v>
       </c>
       <c r="C14" t="n">
-        <v>43913.46</v>
+        <v>34927.83</v>
       </c>
       <c r="D14" t="n">
-        <v>43844.82</v>
+        <v>22254.4</v>
       </c>
       <c r="E14" t="n">
-        <v>43890.63</v>
+        <v>22964.42</v>
       </c>
       <c r="F14" t="n">
-        <v>43781.44</v>
+        <v>22917.76</v>
       </c>
       <c r="G14" t="n">
-        <v>43695.97</v>
-      </c>
-      <c r="H14" t="n">
-        <v>43792.54</v>
-      </c>
-      <c r="I14" t="n">
-        <v>43902.66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>43818.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>43832.86</v>
-      </c>
-      <c r="L14" t="n">
-        <v>43804.25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>43864.16</v>
+        <v>22883.33</v>
       </c>
     </row>
     <row r="15">
@@ -1051,40 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>140375.53</v>
+        <v>140417.65</v>
       </c>
       <c r="C15" t="n">
-        <v>140141.9</v>
+        <v>120336.63</v>
       </c>
       <c r="D15" t="n">
-        <v>140186.73</v>
+        <v>78040.88</v>
       </c>
       <c r="E15" t="n">
-        <v>140556.92</v>
+        <v>79784.5</v>
       </c>
       <c r="F15" t="n">
-        <v>140239.5</v>
+        <v>80382.58</v>
       </c>
       <c r="G15" t="n">
-        <v>140553.64</v>
-      </c>
-      <c r="H15" t="n">
-        <v>140184.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>140563.94</v>
-      </c>
-      <c r="J15" t="n">
-        <v>140759.73</v>
-      </c>
-      <c r="K15" t="n">
-        <v>140209.65</v>
-      </c>
-      <c r="L15" t="n">
-        <v>140444.83</v>
-      </c>
-      <c r="M15" t="n">
-        <v>140417.65</v>
+        <v>80102.50999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1094,151 +822,72 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18817.61</v>
+        <v>18734.93</v>
       </c>
       <c r="C16" t="n">
-        <v>18675.13</v>
+        <v>18722.73</v>
       </c>
       <c r="D16" t="n">
-        <v>18904.13</v>
+        <v>18169.71</v>
       </c>
       <c r="E16" t="n">
-        <v>18899.96</v>
+        <v>18894.46</v>
       </c>
       <c r="F16" t="n">
-        <v>18739.86</v>
+        <v>18752.66</v>
       </c>
       <c r="G16" t="n">
-        <v>18934.95</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18679.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18829.24</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18691.93</v>
-      </c>
-      <c r="K16" t="n">
-        <v>18688.94</v>
-      </c>
-      <c r="L16" t="n">
-        <v>18908.45</v>
-      </c>
-      <c r="M16" t="n">
-        <v>18734.93</v>
+        <v>18802.82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170525.29</v>
+        <v>82190.97</v>
       </c>
       <c r="C17" t="n">
-        <v>170523.4</v>
+        <v>80200.96000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>170278.7</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+        <v>75025.62</v>
+      </c>
+      <c r="E17" t="n">
+        <v>73517.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>69770</v>
+      </c>
+      <c r="G17" t="n">
+        <v>68572.85000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99800.63</v>
+        <v>1232864.5</v>
       </c>
       <c r="C18" t="n">
-        <v>112400.51</v>
+        <v>1203014.46</v>
       </c>
       <c r="D18" t="n">
-        <v>99961.47</v>
+        <v>1125384.32</v>
       </c>
       <c r="E18" t="n">
-        <v>93306.31</v>
+        <v>1102759.19</v>
       </c>
       <c r="F18" t="n">
-        <v>92563.16</v>
+        <v>1046549.93</v>
       </c>
       <c r="G18" t="n">
-        <v>92128.00999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>89124.86</v>
-      </c>
-      <c r="I18" t="n">
-        <v>88687.27</v>
-      </c>
-      <c r="J18" t="n">
-        <v>85682.60000000001</v>
-      </c>
-      <c r="K18" t="n">
-        <v>82756.14999999999</v>
-      </c>
-      <c r="L18" t="n">
-        <v>82038.7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>82190.97</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1596810.12</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1236405.59</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1599383.55</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1399594.72</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1388447.38</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1381920.19</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1336872.9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1330309.03</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1285239.04</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1241342.18</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1230580.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1232864.5</v>
+        <v>1028592.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>102326.47</v>
+      </c>
+      <c r="C2" t="n">
+        <v>102454.54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>102333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>102535.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>102334.24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>102488.58</v>
+      </c>
+      <c r="H2" t="n">
+        <v>102557.07</v>
+      </c>
+      <c r="I2" t="n">
+        <v>102634.39</v>
+      </c>
+      <c r="J2" t="n">
+        <v>102456.59</v>
+      </c>
+      <c r="K2" t="n">
+        <v>102479.67</v>
+      </c>
+      <c r="L2" t="n">
+        <v>102462.25</v>
+      </c>
+      <c r="M2" t="n">
         <v>102320.09</v>
-      </c>
-      <c r="C2" t="n">
-        <v>102373.9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99499.66</v>
-      </c>
-      <c r="E2" t="n">
-        <v>102576.34</v>
-      </c>
-      <c r="F2" t="n">
-        <v>63812.19</v>
-      </c>
-      <c r="G2" t="n">
-        <v>48058.82</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>136797.84</v>
+      </c>
+      <c r="C3" t="n">
+        <v>136194.07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>136063.09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>136760.98</v>
+      </c>
+      <c r="F3" t="n">
+        <v>136672.54</v>
+      </c>
+      <c r="G3" t="n">
+        <v>135411.34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>136731.58</v>
+      </c>
+      <c r="I3" t="n">
+        <v>136000.72</v>
+      </c>
+      <c r="J3" t="n">
+        <v>95676.11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>95682.23</v>
+      </c>
+      <c r="L3" t="n">
+        <v>94490.41</v>
+      </c>
+      <c r="M3" t="n">
         <v>95168.37</v>
-      </c>
-      <c r="C3" t="n">
-        <v>94629.37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>92919.41</v>
-      </c>
-      <c r="E3" t="n">
-        <v>33899.84</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33394.98</v>
-      </c>
-      <c r="G3" t="n">
-        <v>33327.28</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>196652.38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>196810.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>196700.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>196687.41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>204136.09</v>
+      </c>
+      <c r="G4" t="n">
+        <v>204069.28</v>
+      </c>
+      <c r="H4" t="n">
+        <v>219233.66</v>
+      </c>
+      <c r="I4" t="n">
+        <v>219300.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>219120.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>219171.56</v>
+      </c>
+      <c r="L4" t="n">
+        <v>209377.46</v>
+      </c>
+      <c r="M4" t="n">
         <v>209338.41</v>
-      </c>
-      <c r="C4" t="n">
-        <v>209503.41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>210907.21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>227139.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>227350.79</v>
-      </c>
-      <c r="G4" t="n">
-        <v>227408.82</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>391972.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>390243.02</v>
+      </c>
+      <c r="D5" t="n">
+        <v>390154.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>361924.64</v>
+      </c>
+      <c r="F5" t="n">
+        <v>343288.53</v>
+      </c>
+      <c r="G5" t="n">
+        <v>335029.52</v>
+      </c>
+      <c r="H5" t="n">
+        <v>320658.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>312067.95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>311093.01</v>
+      </c>
+      <c r="K5" t="n">
+        <v>310284.69</v>
+      </c>
+      <c r="L5" t="n">
+        <v>309955.7</v>
+      </c>
+      <c r="M5" t="n">
         <v>311481.69</v>
-      </c>
-      <c r="C5" t="n">
-        <v>311075.66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>301079.88</v>
-      </c>
-      <c r="E5" t="n">
-        <v>307127.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>308239.75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>307040.06</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,38 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>6737.66</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>6854.92</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6734.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6814.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6948.35</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6531.21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6962.28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6847.73</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6952.42</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6582.03</v>
+      </c>
+      <c r="M6" t="n">
         <v>6680.88</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6582.68</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6689.7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6904.58</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6689.72</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6646.67</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +715,38 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>8493.879999999999</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>8492.139999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8490.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8492.950000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8483.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8490.120000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8487.08</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8489.07</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8490.530000000001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8476.780000000001</v>
+      </c>
+      <c r="M7" t="n">
         <v>8487.76</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8495.290000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8253.120000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8494.18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8489.66</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8496.530000000001</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +756,38 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>12704.26</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>12694.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12682.24</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12698.53</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12713.03</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12690.14</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12705.24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12703.64</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12696.59</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12689.41</v>
+      </c>
+      <c r="M8" t="n">
         <v>12699.85</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12703.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12334.09</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12690.58</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12708.78</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12691.47</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +797,38 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>228620.38</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>227479.63</v>
+      </c>
+      <c r="E9" t="n">
+        <v>226040.06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>225742.86</v>
+      </c>
+      <c r="G9" t="n">
+        <v>227647.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>186725.31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>187478.22</v>
+      </c>
+      <c r="J9" t="n">
+        <v>188798.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>187359.14</v>
+      </c>
+      <c r="L9" t="n">
+        <v>188588.23</v>
+      </c>
+      <c r="M9" t="n">
         <v>187584.03</v>
-      </c>
-      <c r="C9" t="n">
-        <v>187650.21</v>
-      </c>
-      <c r="D9" t="n">
-        <v>183199.45</v>
-      </c>
-      <c r="E9" t="n">
-        <v>188151.35</v>
-      </c>
-      <c r="F9" t="n">
-        <v>187704.64</v>
-      </c>
-      <c r="G9" t="n">
-        <v>187025.31</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +838,38 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>106425.39</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>107260.17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>106518.89</v>
+      </c>
+      <c r="F10" t="n">
+        <v>107794.25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>107785.28</v>
+      </c>
+      <c r="H10" t="n">
+        <v>108047.64</v>
+      </c>
+      <c r="I10" t="n">
+        <v>108290.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>108161.85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>66781.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>66193.25999999999</v>
+      </c>
+      <c r="M10" t="n">
         <v>67218.64</v>
-      </c>
-      <c r="C10" t="n">
-        <v>67425.25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>63955.6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>65666.89999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>47168.34</v>
-      </c>
-      <c r="G10" t="n">
-        <v>46617.99</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +879,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>4679.44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4927.07</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4915.71</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4785.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4556.44</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5025.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4684.52</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4772.32</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4614.17</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4644.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4543.85</v>
+      </c>
+      <c r="M11" t="n">
         <v>4678.75</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4482.47</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4542.76</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4493.68</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4678.97</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5104.64</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +922,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>9784.440000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9075.68</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9809.98</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9702.200000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9736.690000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9474.280000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4489.46</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4724.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>626.89</v>
+      </c>
+      <c r="K12" t="n">
+        <v>611.11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>568.16</v>
+      </c>
+      <c r="M12" t="n">
         <v>578.6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>552.52</v>
-      </c>
-      <c r="D12" t="n">
-        <v>565.35</v>
-      </c>
-      <c r="E12" t="n">
-        <v>582.83</v>
-      </c>
-      <c r="F12" t="n">
-        <v>598.45</v>
-      </c>
-      <c r="G12" t="n">
-        <v>611.17</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +965,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>17991.65</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23446.42</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23410.78</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23385.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23419.36</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23660.21</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23376.95</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23589.29</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23381.12</v>
+      </c>
+      <c r="K13" t="n">
+        <v>23456.59</v>
+      </c>
+      <c r="L13" t="n">
+        <v>23495.43</v>
+      </c>
+      <c r="M13" t="n">
         <v>23610.69</v>
-      </c>
-      <c r="C13" t="n">
-        <v>23553.01</v>
-      </c>
-      <c r="D13" t="n">
-        <v>22973.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>23388.33</v>
-      </c>
-      <c r="F13" t="n">
-        <v>23660.66</v>
-      </c>
-      <c r="G13" t="n">
-        <v>23775.29</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1008,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>43905.49</v>
+      </c>
+      <c r="C14" t="n">
+        <v>43913.46</v>
+      </c>
+      <c r="D14" t="n">
+        <v>43844.82</v>
+      </c>
+      <c r="E14" t="n">
+        <v>43890.63</v>
+      </c>
+      <c r="F14" t="n">
+        <v>43781.44</v>
+      </c>
+      <c r="G14" t="n">
+        <v>43695.97</v>
+      </c>
+      <c r="H14" t="n">
+        <v>43792.54</v>
+      </c>
+      <c r="I14" t="n">
+        <v>43902.66</v>
+      </c>
+      <c r="J14" t="n">
+        <v>43818.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>43832.86</v>
+      </c>
+      <c r="L14" t="n">
+        <v>43804.25</v>
+      </c>
+      <c r="M14" t="n">
         <v>43864.16</v>
-      </c>
-      <c r="C14" t="n">
-        <v>34927.83</v>
-      </c>
-      <c r="D14" t="n">
-        <v>22254.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>22964.42</v>
-      </c>
-      <c r="F14" t="n">
-        <v>22917.76</v>
-      </c>
-      <c r="G14" t="n">
-        <v>22883.33</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1051,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>140375.53</v>
+      </c>
+      <c r="C15" t="n">
+        <v>140141.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>140186.73</v>
+      </c>
+      <c r="E15" t="n">
+        <v>140556.92</v>
+      </c>
+      <c r="F15" t="n">
+        <v>140239.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>140553.64</v>
+      </c>
+      <c r="H15" t="n">
+        <v>140184.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>140563.94</v>
+      </c>
+      <c r="J15" t="n">
+        <v>140759.73</v>
+      </c>
+      <c r="K15" t="n">
+        <v>140209.65</v>
+      </c>
+      <c r="L15" t="n">
+        <v>140444.83</v>
+      </c>
+      <c r="M15" t="n">
         <v>140417.65</v>
-      </c>
-      <c r="C15" t="n">
-        <v>120336.63</v>
-      </c>
-      <c r="D15" t="n">
-        <v>78040.88</v>
-      </c>
-      <c r="E15" t="n">
-        <v>79784.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>80382.58</v>
-      </c>
-      <c r="G15" t="n">
-        <v>80102.50999999999</v>
       </c>
     </row>
     <row r="16">
@@ -822,72 +1094,151 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>18817.61</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18675.13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18904.13</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18899.96</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18739.86</v>
+      </c>
+      <c r="G16" t="n">
+        <v>18934.95</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18679.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18829.24</v>
+      </c>
+      <c r="J16" t="n">
+        <v>18691.93</v>
+      </c>
+      <c r="K16" t="n">
+        <v>18688.94</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18908.45</v>
+      </c>
+      <c r="M16" t="n">
         <v>18734.93</v>
-      </c>
-      <c r="C16" t="n">
-        <v>18722.73</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18169.71</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18894.46</v>
-      </c>
-      <c r="F16" t="n">
-        <v>18752.66</v>
-      </c>
-      <c r="G16" t="n">
-        <v>18802.82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82190.97</v>
+        <v>170525.29</v>
       </c>
       <c r="C17" t="n">
-        <v>80200.96000000001</v>
+        <v>170523.4</v>
       </c>
       <c r="D17" t="n">
-        <v>75025.62</v>
-      </c>
-      <c r="E17" t="n">
-        <v>73517.28</v>
-      </c>
-      <c r="F17" t="n">
-        <v>69770</v>
-      </c>
-      <c r="G17" t="n">
-        <v>68572.85000000001</v>
-      </c>
+        <v>170278.7</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>99800.63</v>
+      </c>
+      <c r="C18" t="n">
+        <v>112400.51</v>
+      </c>
+      <c r="D18" t="n">
+        <v>99961.47</v>
+      </c>
+      <c r="E18" t="n">
+        <v>93306.31</v>
+      </c>
+      <c r="F18" t="n">
+        <v>92563.16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>92128.00999999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>89124.86</v>
+      </c>
+      <c r="I18" t="n">
+        <v>88687.27</v>
+      </c>
+      <c r="J18" t="n">
+        <v>85682.60000000001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>82756.14999999999</v>
+      </c>
+      <c r="L18" t="n">
+        <v>82038.7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>82190.97</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
+        <v>1596810.12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1236405.59</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1599383.55</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1399594.72</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1388447.38</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1381920.19</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1336872.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1330309.03</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1285239.04</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1241342.18</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1230580.5</v>
+      </c>
+      <c r="M19" t="n">
         <v>1232864.5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1203014.46</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1125384.32</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1102759.19</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1046549.93</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1028592.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102326.47</v>
+        <v>102320.09</v>
       </c>
       <c r="C2" t="n">
-        <v>102454.54</v>
+        <v>102373.9</v>
       </c>
       <c r="D2" t="n">
-        <v>102333</v>
+        <v>99499.66</v>
       </c>
       <c r="E2" t="n">
-        <v>102535.31</v>
+        <v>102576.34</v>
       </c>
       <c r="F2" t="n">
-        <v>102334.24</v>
+        <v>63812.19</v>
       </c>
       <c r="G2" t="n">
-        <v>102488.58</v>
+        <v>48058.82</v>
       </c>
       <c r="H2" t="n">
-        <v>102557.07</v>
+        <v>47834.16</v>
       </c>
       <c r="I2" t="n">
-        <v>102634.39</v>
+        <v>48150.15</v>
       </c>
       <c r="J2" t="n">
-        <v>102456.59</v>
+        <v>61118.38</v>
       </c>
       <c r="K2" t="n">
-        <v>102479.67</v>
+        <v>60904.53</v>
       </c>
       <c r="L2" t="n">
-        <v>102462.25</v>
+        <v>60797.22</v>
       </c>
       <c r="M2" t="n">
-        <v>102320.09</v>
+        <v>84064.58</v>
+      </c>
+      <c r="N2" t="n">
+        <v>83866.95</v>
+      </c>
+      <c r="O2" t="n">
+        <v>96093.91</v>
+      </c>
+      <c r="P2" t="n">
+        <v>96226.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>96508.85000000001</v>
+      </c>
+      <c r="R2" t="n">
+        <v>96189.50999999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>95857.14999999999</v>
+      </c>
+      <c r="T2" t="n">
+        <v>96425.24000000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>96157.31</v>
+      </c>
+      <c r="V2" t="n">
+        <v>112268.26</v>
+      </c>
+      <c r="W2" t="n">
+        <v>112376.31</v>
+      </c>
+      <c r="X2" t="n">
+        <v>112108.29</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>112795.04</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>132997.21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>133072.16</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136797.84</v>
+        <v>95168.37</v>
       </c>
       <c r="C3" t="n">
-        <v>136194.07</v>
+        <v>94629.37</v>
       </c>
       <c r="D3" t="n">
-        <v>136063.09</v>
+        <v>92919.41</v>
       </c>
       <c r="E3" t="n">
-        <v>136760.98</v>
+        <v>33899.84</v>
       </c>
       <c r="F3" t="n">
-        <v>136672.54</v>
+        <v>33394.98</v>
       </c>
       <c r="G3" t="n">
-        <v>135411.34</v>
+        <v>33327.28</v>
       </c>
       <c r="H3" t="n">
-        <v>136731.58</v>
+        <v>34408.59</v>
       </c>
       <c r="I3" t="n">
-        <v>136000.72</v>
+        <v>33642.56</v>
       </c>
       <c r="J3" t="n">
-        <v>95676.11</v>
+        <v>34577.13</v>
       </c>
       <c r="K3" t="n">
-        <v>95682.23</v>
+        <v>34683.93</v>
       </c>
       <c r="L3" t="n">
-        <v>94490.41</v>
+        <v>34546.26</v>
       </c>
       <c r="M3" t="n">
-        <v>95168.37</v>
+        <v>33679</v>
+      </c>
+      <c r="N3" t="n">
+        <v>33831.92</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34180.68</v>
+      </c>
+      <c r="P3" t="n">
+        <v>33313.35</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>34654.51</v>
+      </c>
+      <c r="R3" t="n">
+        <v>33202.52</v>
+      </c>
+      <c r="S3" t="n">
+        <v>34070.77</v>
+      </c>
+      <c r="T3" t="n">
+        <v>34563.45</v>
+      </c>
+      <c r="U3" t="n">
+        <v>33410.17</v>
+      </c>
+      <c r="V3" t="n">
+        <v>34113.53</v>
+      </c>
+      <c r="W3" t="n">
+        <v>34669.63</v>
+      </c>
+      <c r="X3" t="n">
+        <v>33840.48</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>34319.64</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>34320.74</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>34395.88</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196652.38</v>
+        <v>209338.41</v>
       </c>
       <c r="C4" t="n">
-        <v>196810.9</v>
+        <v>209503.41</v>
       </c>
       <c r="D4" t="n">
-        <v>196700.8</v>
+        <v>210907.21</v>
       </c>
       <c r="E4" t="n">
-        <v>196687.41</v>
+        <v>227139.5</v>
       </c>
       <c r="F4" t="n">
-        <v>204136.09</v>
+        <v>227350.79</v>
       </c>
       <c r="G4" t="n">
-        <v>204069.28</v>
+        <v>227408.82</v>
       </c>
       <c r="H4" t="n">
-        <v>219233.66</v>
+        <v>222568.5</v>
       </c>
       <c r="I4" t="n">
-        <v>219300.6</v>
+        <v>222372.74</v>
       </c>
       <c r="J4" t="n">
-        <v>219120.2</v>
+        <v>222712.84</v>
       </c>
       <c r="K4" t="n">
-        <v>219171.56</v>
+        <v>234320.24</v>
       </c>
       <c r="L4" t="n">
-        <v>209377.46</v>
+        <v>234349.68</v>
       </c>
       <c r="M4" t="n">
-        <v>209338.41</v>
+        <v>213857.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>213810.44</v>
+      </c>
+      <c r="O4" t="n">
+        <v>217141.78</v>
+      </c>
+      <c r="P4" t="n">
+        <v>220219.22</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>242624.47</v>
+      </c>
+      <c r="R4" t="n">
+        <v>251054.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>257210.94</v>
+      </c>
+      <c r="T4" t="n">
+        <v>254103.89</v>
+      </c>
+      <c r="U4" t="n">
+        <v>243316.57</v>
+      </c>
+      <c r="V4" t="n">
+        <v>255319.36</v>
+      </c>
+      <c r="W4" t="n">
+        <v>273204.16</v>
+      </c>
+      <c r="X4" t="n">
+        <v>289125.85</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>289108.1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>275815.69</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>271452.23</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>391972.41</v>
+        <v>311481.69</v>
       </c>
       <c r="C5" t="n">
-        <v>390243.02</v>
+        <v>311075.66</v>
       </c>
       <c r="D5" t="n">
-        <v>390154.55</v>
+        <v>301079.88</v>
       </c>
       <c r="E5" t="n">
-        <v>361924.64</v>
+        <v>307127.7</v>
       </c>
       <c r="F5" t="n">
-        <v>343288.53</v>
+        <v>308239.75</v>
       </c>
       <c r="G5" t="n">
-        <v>335029.52</v>
+        <v>307040.06</v>
       </c>
       <c r="H5" t="n">
-        <v>320658.9</v>
+        <v>309466.17</v>
       </c>
       <c r="I5" t="n">
-        <v>312067.95</v>
+        <v>310618.75</v>
       </c>
       <c r="J5" t="n">
-        <v>311093.01</v>
+        <v>309669.27</v>
       </c>
       <c r="K5" t="n">
-        <v>310284.69</v>
+        <v>308706.73</v>
       </c>
       <c r="L5" t="n">
-        <v>309955.7</v>
+        <v>310223.18</v>
       </c>
       <c r="M5" t="n">
-        <v>311481.69</v>
+        <v>311682.7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>309512.27</v>
+      </c>
+      <c r="O5" t="n">
+        <v>312333.71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>309209.16</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>310459.37</v>
+      </c>
+      <c r="R5" t="n">
+        <v>309342.06</v>
+      </c>
+      <c r="S5" t="n">
+        <v>311420.82</v>
+      </c>
+      <c r="T5" t="n">
+        <v>310433.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>311825.87</v>
+      </c>
+      <c r="V5" t="n">
+        <v>311507.48</v>
+      </c>
+      <c r="W5" t="n">
+        <v>312812.29</v>
+      </c>
+      <c r="X5" t="n">
+        <v>310939.13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>311628.91</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>310313.29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>309708.34</v>
       </c>
     </row>
     <row r="6">
@@ -674,38 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6737.66</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>6680.88</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6582.68</v>
+      </c>
       <c r="D6" t="n">
-        <v>6854.92</v>
+        <v>6689.7</v>
       </c>
       <c r="E6" t="n">
-        <v>6734.18</v>
+        <v>6904.58</v>
       </c>
       <c r="F6" t="n">
-        <v>6814.1</v>
+        <v>6689.72</v>
       </c>
       <c r="G6" t="n">
-        <v>6948.35</v>
+        <v>6646.67</v>
       </c>
       <c r="H6" t="n">
-        <v>6531.21</v>
+        <v>6841.63</v>
       </c>
       <c r="I6" t="n">
-        <v>6962.28</v>
+        <v>6644.56</v>
       </c>
       <c r="J6" t="n">
-        <v>6847.73</v>
+        <v>6871.86</v>
       </c>
       <c r="K6" t="n">
-        <v>6952.42</v>
+        <v>6690.93</v>
       </c>
       <c r="L6" t="n">
-        <v>6582.03</v>
+        <v>6842.65</v>
       </c>
       <c r="M6" t="n">
-        <v>6680.88</v>
+        <v>6969.14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6594.03</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6941.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6614</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6936.33</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6841.17</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6695.58</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6906.51</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6770.58</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6855.92</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6733.15</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6505.91</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>5554.34</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5008.67</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5353.76</v>
       </c>
     </row>
     <row r="7">
@@ -715,38 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8493.879999999999</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>8487.76</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8495.290000000001</v>
+      </c>
       <c r="D7" t="n">
-        <v>8492.139999999999</v>
+        <v>8253.120000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>8490.5</v>
+        <v>8494.18</v>
       </c>
       <c r="F7" t="n">
-        <v>8492.950000000001</v>
+        <v>8489.66</v>
       </c>
       <c r="G7" t="n">
-        <v>8483.5</v>
+        <v>8496.530000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>8490.120000000001</v>
+        <v>8494.389999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>8487.08</v>
+        <v>8491.99</v>
       </c>
       <c r="J7" t="n">
-        <v>8489.07</v>
+        <v>8486.110000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>8490.530000000001</v>
+        <v>8489.65</v>
       </c>
       <c r="L7" t="n">
-        <v>8476.780000000001</v>
+        <v>8481.049999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>8487.76</v>
+        <v>8479.959999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8476.209999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8481.93</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8482.32</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8487.360000000001</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8487.07</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8484.24</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8492.26</v>
+      </c>
+      <c r="U7" t="n">
+        <v>8473.299999999999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8488.370000000001</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8484.809999999999</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8474.18</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8487.620000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7707.88</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7706.91</v>
       </c>
     </row>
     <row r="8">
@@ -756,38 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12704.26</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>12699.85</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12703.5</v>
+      </c>
       <c r="D8" t="n">
-        <v>12694.4</v>
+        <v>12334.09</v>
       </c>
       <c r="E8" t="n">
-        <v>12682.24</v>
+        <v>12690.58</v>
       </c>
       <c r="F8" t="n">
-        <v>12698.53</v>
+        <v>12708.78</v>
       </c>
       <c r="G8" t="n">
-        <v>12713.03</v>
+        <v>12691.47</v>
       </c>
       <c r="H8" t="n">
-        <v>12690.14</v>
+        <v>12694.72</v>
       </c>
       <c r="I8" t="n">
-        <v>12705.24</v>
+        <v>12700.22</v>
       </c>
       <c r="J8" t="n">
-        <v>12703.64</v>
+        <v>12705.81</v>
       </c>
       <c r="K8" t="n">
-        <v>12696.59</v>
+        <v>12681.22</v>
       </c>
       <c r="L8" t="n">
-        <v>12689.41</v>
+        <v>12686.94</v>
       </c>
       <c r="M8" t="n">
-        <v>12699.85</v>
+        <v>12686.95</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12712.31</v>
+      </c>
+      <c r="O8" t="n">
+        <v>12691.91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>12681.86</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>12681.37</v>
+      </c>
+      <c r="R8" t="n">
+        <v>12706.36</v>
+      </c>
+      <c r="S8" t="n">
+        <v>12707.67</v>
+      </c>
+      <c r="T8" t="n">
+        <v>12711.49</v>
+      </c>
+      <c r="U8" t="n">
+        <v>12703.31</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12689.14</v>
+      </c>
+      <c r="W8" t="n">
+        <v>12699.57</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12710.44</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12695.08</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11538.96</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11534.49</v>
       </c>
     </row>
     <row r="9">
@@ -797,38 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228620.38</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>187584.03</v>
+      </c>
+      <c r="C9" t="n">
+        <v>187650.21</v>
+      </c>
       <c r="D9" t="n">
-        <v>227479.63</v>
+        <v>183199.45</v>
       </c>
       <c r="E9" t="n">
-        <v>226040.06</v>
+        <v>188151.35</v>
       </c>
       <c r="F9" t="n">
-        <v>225742.86</v>
+        <v>187704.64</v>
       </c>
       <c r="G9" t="n">
-        <v>227647.01</v>
+        <v>187025.31</v>
       </c>
       <c r="H9" t="n">
-        <v>186725.31</v>
+        <v>188496.02</v>
       </c>
       <c r="I9" t="n">
-        <v>187478.22</v>
+        <v>188993.2</v>
       </c>
       <c r="J9" t="n">
-        <v>188798.7</v>
+        <v>187011.24</v>
       </c>
       <c r="K9" t="n">
-        <v>187359.14</v>
+        <v>188559.56</v>
       </c>
       <c r="L9" t="n">
-        <v>188588.23</v>
+        <v>188405.47</v>
       </c>
       <c r="M9" t="n">
-        <v>187584.03</v>
+        <v>188744.7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>188945.23</v>
+      </c>
+      <c r="O9" t="n">
+        <v>187265.94</v>
+      </c>
+      <c r="P9" t="n">
+        <v>187928.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>187068.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>187395.54</v>
+      </c>
+      <c r="S9" t="n">
+        <v>188286.65</v>
+      </c>
+      <c r="T9" t="n">
+        <v>186938.43</v>
+      </c>
+      <c r="U9" t="n">
+        <v>187548.47</v>
+      </c>
+      <c r="V9" t="n">
+        <v>178254.35</v>
+      </c>
+      <c r="W9" t="n">
+        <v>177867.84</v>
+      </c>
+      <c r="X9" t="n">
+        <v>177643.59</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>179420.64</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>161572.21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>161772.61</v>
       </c>
     </row>
     <row r="10">
@@ -838,38 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106425.39</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>67218.64</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67425.25</v>
+      </c>
       <c r="D10" t="n">
-        <v>107260.17</v>
+        <v>63955.6</v>
       </c>
       <c r="E10" t="n">
-        <v>106518.89</v>
+        <v>65666.89999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>107794.25</v>
+        <v>47168.34</v>
       </c>
       <c r="G10" t="n">
-        <v>107785.28</v>
+        <v>46617.99</v>
       </c>
       <c r="H10" t="n">
-        <v>108047.64</v>
+        <v>46733.49</v>
       </c>
       <c r="I10" t="n">
-        <v>108290.5</v>
+        <v>47850.58</v>
       </c>
       <c r="J10" t="n">
-        <v>108161.85</v>
+        <v>46120.75</v>
       </c>
       <c r="K10" t="n">
-        <v>66781.5</v>
+        <v>46492.62</v>
       </c>
       <c r="L10" t="n">
-        <v>66193.25999999999</v>
+        <v>47389.12</v>
       </c>
       <c r="M10" t="n">
-        <v>67218.64</v>
+        <v>47198</v>
+      </c>
+      <c r="N10" t="n">
+        <v>38198.13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>37518.07</v>
+      </c>
+      <c r="P10" t="n">
+        <v>37399.13</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>37625.54</v>
+      </c>
+      <c r="R10" t="n">
+        <v>38559.95</v>
+      </c>
+      <c r="S10" t="n">
+        <v>37005.24</v>
+      </c>
+      <c r="T10" t="n">
+        <v>37094.92</v>
+      </c>
+      <c r="U10" t="n">
+        <v>37625.81</v>
+      </c>
+      <c r="V10" t="n">
+        <v>37242.11</v>
+      </c>
+      <c r="W10" t="n">
+        <v>37554.84</v>
+      </c>
+      <c r="X10" t="n">
+        <v>37602.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>38499.45</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34051.18</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34510.81</v>
       </c>
     </row>
     <row r="11">
@@ -879,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4679.44</v>
+        <v>4678.75</v>
       </c>
       <c r="C11" t="n">
-        <v>4927.07</v>
+        <v>4482.47</v>
       </c>
       <c r="D11" t="n">
-        <v>4915.71</v>
+        <v>4542.76</v>
       </c>
       <c r="E11" t="n">
-        <v>4785.7</v>
+        <v>4493.68</v>
       </c>
       <c r="F11" t="n">
-        <v>4556.44</v>
+        <v>4678.97</v>
       </c>
       <c r="G11" t="n">
-        <v>5025.25</v>
+        <v>5104.64</v>
       </c>
       <c r="H11" t="n">
-        <v>4684.52</v>
+        <v>5186.99</v>
       </c>
       <c r="I11" t="n">
-        <v>4772.32</v>
+        <v>5175.21</v>
       </c>
       <c r="J11" t="n">
-        <v>4614.17</v>
+        <v>3620.85</v>
       </c>
       <c r="K11" t="n">
-        <v>4644.7</v>
+        <v>5197.7</v>
       </c>
       <c r="L11" t="n">
-        <v>4543.85</v>
+        <v>3615.21</v>
       </c>
       <c r="M11" t="n">
-        <v>4678.75</v>
+        <v>5332.67</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5244.68</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4997.96</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5098.51</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3619.33</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3962.58</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3855.58</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3770.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3867.54</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3952.11</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4288.47</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4536.61</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4325.38</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3906.19</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3469.51</v>
       </c>
     </row>
     <row r="12">
@@ -922,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9784.440000000001</v>
+        <v>578.6</v>
       </c>
       <c r="C12" t="n">
-        <v>9075.68</v>
+        <v>552.52</v>
       </c>
       <c r="D12" t="n">
-        <v>9809.98</v>
+        <v>565.35</v>
       </c>
       <c r="E12" t="n">
-        <v>9702.200000000001</v>
+        <v>582.83</v>
       </c>
       <c r="F12" t="n">
-        <v>9736.690000000001</v>
+        <v>598.45</v>
       </c>
       <c r="G12" t="n">
-        <v>9474.280000000001</v>
+        <v>611.17</v>
       </c>
       <c r="H12" t="n">
-        <v>4489.46</v>
+        <v>629.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4724.6</v>
+        <v>608.91</v>
       </c>
       <c r="J12" t="n">
-        <v>626.89</v>
+        <v>628.72</v>
       </c>
       <c r="K12" t="n">
-        <v>611.11</v>
+        <v>610.97</v>
       </c>
       <c r="L12" t="n">
-        <v>568.16</v>
+        <v>637.38</v>
       </c>
       <c r="M12" t="n">
-        <v>578.6</v>
+        <v>628.39</v>
+      </c>
+      <c r="N12" t="n">
+        <v>628.27</v>
+      </c>
+      <c r="O12" t="n">
+        <v>590.74</v>
+      </c>
+      <c r="P12" t="n">
+        <v>593.64</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>619.36</v>
+      </c>
+      <c r="R12" t="n">
+        <v>658.6799999999999</v>
+      </c>
+      <c r="S12" t="n">
+        <v>639.67</v>
+      </c>
+      <c r="T12" t="n">
+        <v>617.15</v>
+      </c>
+      <c r="U12" t="n">
+        <v>630.65</v>
+      </c>
+      <c r="V12" t="n">
+        <v>642.13</v>
+      </c>
+      <c r="W12" t="n">
+        <v>678.6799999999999</v>
+      </c>
+      <c r="X12" t="n">
+        <v>773.66</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>755.4</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>660.21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>583.01</v>
       </c>
     </row>
     <row r="13">
@@ -965,40 +1507,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17991.65</v>
+        <v>23610.69</v>
       </c>
       <c r="C13" t="n">
-        <v>23446.42</v>
+        <v>23553.01</v>
       </c>
       <c r="D13" t="n">
-        <v>23410.78</v>
+        <v>22973.1</v>
       </c>
       <c r="E13" t="n">
-        <v>23385.1</v>
+        <v>23388.33</v>
       </c>
       <c r="F13" t="n">
-        <v>23419.36</v>
+        <v>23660.66</v>
       </c>
       <c r="G13" t="n">
-        <v>23660.21</v>
+        <v>23775.29</v>
       </c>
       <c r="H13" t="n">
-        <v>23376.95</v>
+        <v>23546.86</v>
       </c>
       <c r="I13" t="n">
-        <v>23589.29</v>
+        <v>23468.38</v>
       </c>
       <c r="J13" t="n">
-        <v>23381.12</v>
+        <v>23391.32</v>
       </c>
       <c r="K13" t="n">
-        <v>23456.59</v>
+        <v>23381.78</v>
       </c>
       <c r="L13" t="n">
-        <v>23495.43</v>
+        <v>23487.95</v>
       </c>
       <c r="M13" t="n">
-        <v>23610.69</v>
+        <v>23668.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>23548.65</v>
+      </c>
+      <c r="O13" t="n">
+        <v>23651.56</v>
+      </c>
+      <c r="P13" t="n">
+        <v>23504.56</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>23601.13</v>
+      </c>
+      <c r="R13" t="n">
+        <v>23291.36</v>
+      </c>
+      <c r="S13" t="n">
+        <v>23548.04</v>
+      </c>
+      <c r="T13" t="n">
+        <v>23458.29</v>
+      </c>
+      <c r="U13" t="n">
+        <v>23473.29</v>
+      </c>
+      <c r="V13" t="n">
+        <v>28870.92</v>
+      </c>
+      <c r="W13" t="n">
+        <v>28989.13</v>
+      </c>
+      <c r="X13" t="n">
+        <v>28882.76</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>28850.7</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26237.13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19371.07</v>
       </c>
     </row>
     <row r="14">
@@ -1008,40 +1592,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43905.49</v>
+        <v>43864.16</v>
       </c>
       <c r="C14" t="n">
-        <v>43913.46</v>
+        <v>34927.83</v>
       </c>
       <c r="D14" t="n">
-        <v>43844.82</v>
+        <v>22254.4</v>
       </c>
       <c r="E14" t="n">
-        <v>43890.63</v>
+        <v>22964.42</v>
       </c>
       <c r="F14" t="n">
-        <v>43781.44</v>
+        <v>22917.76</v>
       </c>
       <c r="G14" t="n">
-        <v>43695.97</v>
+        <v>22883.33</v>
       </c>
       <c r="H14" t="n">
-        <v>43792.54</v>
+        <v>23009.33</v>
       </c>
       <c r="I14" t="n">
-        <v>43902.66</v>
+        <v>23039.87</v>
       </c>
       <c r="J14" t="n">
-        <v>43818.3</v>
+        <v>23017.22</v>
       </c>
       <c r="K14" t="n">
-        <v>43832.86</v>
+        <v>22930.38</v>
       </c>
       <c r="L14" t="n">
-        <v>43804.25</v>
+        <v>23101.87</v>
       </c>
       <c r="M14" t="n">
-        <v>43864.16</v>
+        <v>22918.87</v>
+      </c>
+      <c r="N14" t="n">
+        <v>22897.49</v>
+      </c>
+      <c r="O14" t="n">
+        <v>22907.81</v>
+      </c>
+      <c r="P14" t="n">
+        <v>22994.66</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>23080.9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>23007.73</v>
+      </c>
+      <c r="S14" t="n">
+        <v>23027.75</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12866.86</v>
+      </c>
+      <c r="U14" t="n">
+        <v>12817.77</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12833.97</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12946.11</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12991.9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12915.19</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11755.54</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11661.79</v>
       </c>
     </row>
     <row r="15">
@@ -1051,40 +1677,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>140375.53</v>
+        <v>140417.65</v>
       </c>
       <c r="C15" t="n">
-        <v>140141.9</v>
+        <v>120336.63</v>
       </c>
       <c r="D15" t="n">
-        <v>140186.73</v>
+        <v>78040.88</v>
       </c>
       <c r="E15" t="n">
-        <v>140556.92</v>
+        <v>79784.5</v>
       </c>
       <c r="F15" t="n">
-        <v>140239.5</v>
+        <v>80382.58</v>
       </c>
       <c r="G15" t="n">
-        <v>140553.64</v>
+        <v>80102.50999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>140184.7</v>
+        <v>80167.12</v>
       </c>
       <c r="I15" t="n">
-        <v>140563.94</v>
+        <v>80020.69</v>
       </c>
       <c r="J15" t="n">
-        <v>140759.73</v>
+        <v>79743.67999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>140209.65</v>
+        <v>80091.62</v>
       </c>
       <c r="L15" t="n">
-        <v>140444.83</v>
+        <v>80073.87</v>
       </c>
       <c r="M15" t="n">
-        <v>140417.65</v>
+        <v>79786.41</v>
+      </c>
+      <c r="N15" t="n">
+        <v>79957.50999999999</v>
+      </c>
+      <c r="O15" t="n">
+        <v>71930.16</v>
+      </c>
+      <c r="P15" t="n">
+        <v>66332.59</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>66556.73</v>
+      </c>
+      <c r="R15" t="n">
+        <v>66508.74000000001</v>
+      </c>
+      <c r="S15" t="n">
+        <v>66013.8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>35000.48</v>
+      </c>
+      <c r="U15" t="n">
+        <v>34940.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>34811.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>34951.78</v>
+      </c>
+      <c r="X15" t="n">
+        <v>35187.59</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>35087.79</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>31964.11</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>31879.53</v>
       </c>
     </row>
     <row r="16">
@@ -1094,151 +1762,252 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18817.61</v>
+        <v>18734.93</v>
       </c>
       <c r="C16" t="n">
-        <v>18675.13</v>
+        <v>18722.73</v>
       </c>
       <c r="D16" t="n">
-        <v>18904.13</v>
+        <v>18169.71</v>
       </c>
       <c r="E16" t="n">
-        <v>18899.96</v>
+        <v>18894.46</v>
       </c>
       <c r="F16" t="n">
-        <v>18739.86</v>
+        <v>18752.66</v>
       </c>
       <c r="G16" t="n">
-        <v>18934.95</v>
+        <v>18802.82</v>
       </c>
       <c r="H16" t="n">
-        <v>18679.1</v>
+        <v>18903.41</v>
       </c>
       <c r="I16" t="n">
-        <v>18829.24</v>
+        <v>18717.58</v>
       </c>
       <c r="J16" t="n">
-        <v>18691.93</v>
+        <v>18978.41</v>
       </c>
       <c r="K16" t="n">
-        <v>18688.94</v>
+        <v>18826.05</v>
       </c>
       <c r="L16" t="n">
-        <v>18908.45</v>
+        <v>18914.12</v>
       </c>
       <c r="M16" t="n">
-        <v>18734.93</v>
+        <v>18885.19</v>
+      </c>
+      <c r="N16" t="n">
+        <v>18705.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>18861.87</v>
+      </c>
+      <c r="P16" t="n">
+        <v>18841.91</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>18964.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>18750.24</v>
+      </c>
+      <c r="S16" t="n">
+        <v>18881.13</v>
+      </c>
+      <c r="T16" t="n">
+        <v>18748.34</v>
+      </c>
+      <c r="U16" t="n">
+        <v>18883.66</v>
+      </c>
+      <c r="V16" t="n">
+        <v>18832.73</v>
+      </c>
+      <c r="W16" t="n">
+        <v>18954.17</v>
+      </c>
+      <c r="X16" t="n">
+        <v>18915.37</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>18714.95</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17063.17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>16971.43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170525.29</v>
+        <v>82190.97</v>
       </c>
       <c r="C17" t="n">
-        <v>170523.4</v>
+        <v>80200.96000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>170278.7</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+        <v>75025.62</v>
+      </c>
+      <c r="E17" t="n">
+        <v>73517.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>69770</v>
+      </c>
+      <c r="G17" t="n">
+        <v>68572.85000000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>68598.72</v>
+      </c>
+      <c r="I17" t="n">
+        <v>68699.69</v>
+      </c>
+      <c r="J17" t="n">
+        <v>69243.57000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>70171.19</v>
+      </c>
+      <c r="L17" t="n">
+        <v>70236.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>70572.12</v>
+      </c>
+      <c r="N17" t="n">
+        <v>69795.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>70372.61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>69962.66</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>71565.87</v>
+      </c>
+      <c r="R17" t="n">
+        <v>71997.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>72513.67</v>
+      </c>
+      <c r="T17" t="n">
+        <v>69475.45</v>
+      </c>
+      <c r="U17" t="n">
+        <v>68829.63</v>
+      </c>
+      <c r="V17" t="n">
+        <v>70445.48</v>
+      </c>
+      <c r="W17" t="n">
+        <v>71814.06</v>
+      </c>
+      <c r="X17" t="n">
+        <v>72682.55</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>72877.22</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>70994.14999999999</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>70229.57000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99800.63</v>
+        <v>1232864.5</v>
       </c>
       <c r="C18" t="n">
-        <v>112400.51</v>
+        <v>1203014.46</v>
       </c>
       <c r="D18" t="n">
-        <v>99961.47</v>
+        <v>1125384.32</v>
       </c>
       <c r="E18" t="n">
-        <v>93306.31</v>
+        <v>1102759.19</v>
       </c>
       <c r="F18" t="n">
-        <v>92563.16</v>
+        <v>1046549.93</v>
       </c>
       <c r="G18" t="n">
-        <v>92128.00999999999</v>
+        <v>1028592.71</v>
       </c>
       <c r="H18" t="n">
-        <v>89124.86</v>
+        <v>1028980.78</v>
       </c>
       <c r="I18" t="n">
-        <v>88687.27</v>
+        <v>1030495.39</v>
       </c>
       <c r="J18" t="n">
-        <v>85682.60000000001</v>
+        <v>1038653.59</v>
       </c>
       <c r="K18" t="n">
-        <v>82756.14999999999</v>
+        <v>1052567.91</v>
       </c>
       <c r="L18" t="n">
-        <v>82038.7</v>
+        <v>1053551.97</v>
       </c>
       <c r="M18" t="n">
-        <v>82190.97</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1596810.12</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1236405.59</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1599383.55</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1399594.72</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1388447.38</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1381920.19</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1336872.9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1330309.03</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1285239.04</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1241342.18</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1230580.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1232864.5</v>
+        <v>1058581.79</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1046929.49</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1055589.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1049439.96</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1073488.05</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1079958.04</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1087705.03</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1042131.69</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1032444.4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1056682.18</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1077210.94</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1090238.26</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1093158.23</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1064912.18</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1053443.53</v>
       </c>
     </row>
   </sheetData>
